--- a/posesiones/1381286.xlsx
+++ b/posesiones/1381286.xlsx
@@ -1943,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>12</v>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R12">
         <v>22</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>26</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>32</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>10</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>9</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>9</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>19</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>11</v>
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37">
         <v>17</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3740,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>13</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R44">
         <v>12</v>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R45">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4137,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>20</v>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>15</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>14</v>
@@ -4343,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>15</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R53">
         <v>22</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>13</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4784,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R60">
         <v>17</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R62">
         <v>16</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>10</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R66">
         <v>13</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R68">
         <v>17</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R72">
         <v>19</v>
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R73">
         <v>20</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>4</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5643,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R77">
         <v>23</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R81">
         <v>18</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R83">
         <v>16</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R90">
         <v>25</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R91">
         <v>15</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6572,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R96">
         <v>18</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6769,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R100">
         <v>23</v>
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R101">
         <v>7</v>
@@ -6878,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R102">
         <v>4</v>
@@ -6922,10 +6922,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6966,10 +6966,10 @@
         <v>1</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7163,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R108">
         <v>14</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7263,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>12</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R112">
         <v>6</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R114">
         <v>13</v>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R116">
         <v>25</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7666,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R118">
         <v>9</v>
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R127">
         <v>13</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8198,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R129">
         <v>8</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8542,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R136">
         <v>37</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R139">
         <v>11</v>
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R140">
         <v>18</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9133,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R148">
         <v>21</v>
@@ -9183,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9233,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R150">
         <v>11</v>
@@ -9286,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R151">
         <v>16</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9436,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R154">
         <v>13</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9539,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R156">
         <v>20</v>
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R158">
         <v>23</v>
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9974,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R165">
         <v>21</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R169">
         <v>21</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10321,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R172">
         <v>0</v>
@@ -10374,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R173">
         <v>18</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R179">
         <v>9</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10806,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10950,7 +10950,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R185">
         <v>26</v>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11097,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R188">
         <v>27</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11200,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R190">
         <v>18</v>
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11350,7 +11350,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R193">
         <v>17</v>
@@ -11400,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11450,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R195">
         <v>4</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11550,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R197">
         <v>21</v>
@@ -11600,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11791,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R202">
         <v>0</v>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11891,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R204">
         <v>0</v>
@@ -11938,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11985,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12179,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R210">
         <v>31</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12282,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R212">
         <v>18</v>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12385,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R214">
         <v>7</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12485,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12535,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R217">
         <v>6</v>
@@ -12585,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12635,7 +12635,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R219">
         <v>16</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R221">
         <v>18</v>
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12932,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R225">
         <v>0</v>
@@ -12985,7 +12985,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R226">
         <v>11</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13088,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R228">
         <v>20</v>
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13191,7 +13191,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R230">
         <v>5</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13291,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R232">
         <v>5</v>
@@ -13341,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R234">
         <v>8</v>
@@ -13444,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R235">
         <v>2</v>
@@ -13488,10 +13488,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13538,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13726,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13867,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13908,10 +13908,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13961,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R246">
         <v>14</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14058,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14105,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14155,7 +14155,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R250">
         <v>24</v>
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R251">
         <v>13</v>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14311,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R253">
         <v>14</v>
@@ -14361,7 +14361,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R255">
         <v>14</v>
@@ -14464,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14511,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R260">
         <v>11</v>
@@ -14711,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R261">
         <v>18</v>
@@ -14764,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14814,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R263">
         <v>8</v>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14917,7 +14917,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R265">
         <v>9</v>
@@ -14967,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -15017,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R267">
         <v>28</v>
@@ -15067,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15117,7 +15117,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R269">
         <v>18</v>
@@ -15170,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R271">
         <v>9</v>
@@ -15270,7 +15270,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15458,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15508,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R277">
         <v>14</v>
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15608,7 +15608,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R279">
         <v>5</v>
@@ -15661,7 +15661,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R280">
         <v>14</v>
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15761,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15855,7 +15855,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15902,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15999,7 +15999,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R287">
         <v>21</v>
@@ -16049,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16099,7 +16099,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R289">
         <v>22</v>
@@ -16152,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16202,7 +16202,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R291">
         <v>7</v>
@@ -16252,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16346,7 +16346,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R294">
         <v>11</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16449,7 +16449,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R296">
         <v>5</v>
@@ -16502,7 +16502,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R297">
         <v>19</v>
@@ -16555,7 +16555,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R298">
         <v>16</v>
@@ -16605,7 +16605,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16652,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16699,7 +16699,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16746,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16796,7 +16796,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R303">
         <v>21</v>
@@ -16846,7 +16846,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16893,7 +16893,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16940,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16993,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R307">
         <v>7</v>
@@ -17043,7 +17043,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17093,7 +17093,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R309">
         <v>15</v>
@@ -17146,7 +17146,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17196,7 +17196,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R311">
         <v>7</v>
@@ -17249,7 +17249,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17440,7 +17440,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R316">
         <v>4</v>
@@ -17493,7 +17493,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R317">
         <v>0</v>
@@ -17543,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17590,7 +17590,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17684,7 +17684,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17734,7 +17734,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R322">
         <v>26</v>
@@ -17787,7 +17787,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17837,7 +17837,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R324">
         <v>15</v>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17937,7 +17937,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R326">
         <v>10</v>
@@ -17987,7 +17987,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18034,7 +18034,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18084,7 +18084,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R329">
         <v>22</v>
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18184,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R331">
         <v>25</v>
@@ -18237,7 +18237,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18287,7 +18287,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R333">
         <v>18</v>
@@ -18337,7 +18337,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18387,7 +18387,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R335">
         <v>5</v>
@@ -18437,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18484,7 +18484,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18534,7 +18534,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18584,7 +18584,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R339">
         <v>23</v>
@@ -18637,7 +18637,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R340">
         <v>23</v>
@@ -18690,7 +18690,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18737,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18878,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18972,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -19019,7 +19019,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19113,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19160,7 +19160,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19257,7 +19257,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R353">
         <v>18</v>
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19360,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R355">
         <v>8</v>
@@ -19413,7 +19413,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19560,7 +19560,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R359">
         <v>13</v>
@@ -19610,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19663,7 +19663,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R361">
         <v>12</v>
@@ -19713,7 +19713,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19901,7 +19901,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19948,7 +19948,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19998,7 +19998,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R368">
         <v>12</v>
@@ -20048,7 +20048,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20098,7 +20098,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R370">
         <v>1</v>
@@ -20148,7 +20148,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20189,10 +20189,10 @@
         <v>1</v>
       </c>
       <c r="P372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q372">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20233,10 +20233,10 @@
         <v>1</v>
       </c>
       <c r="P373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q373">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20283,7 +20283,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20380,7 +20380,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R376">
         <v>22</v>
@@ -20433,7 +20433,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R377">
         <v>25</v>
@@ -20483,7 +20483,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20530,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20577,7 +20577,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20624,7 +20624,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20671,7 +20671,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20718,7 +20718,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20765,7 +20765,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20815,7 +20815,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R385">
         <v>10</v>
@@ -20868,7 +20868,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R386">
         <v>17</v>
@@ -20918,7 +20918,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20965,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21062,7 +21062,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R390">
         <v>13</v>
@@ -21112,7 +21112,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21162,7 +21162,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R392">
         <v>3</v>
@@ -21212,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21309,7 +21309,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21356,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21406,7 +21406,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21456,7 +21456,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R398">
         <v>43</v>
@@ -21509,7 +21509,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21603,7 +21603,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21650,7 +21650,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21700,7 +21700,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R403">
         <v>17</v>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21797,7 +21797,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21850,7 +21850,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R406">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21947,7 +21947,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21994,7 +21994,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22041,7 +22041,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22138,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22188,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22235,7 +22235,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22282,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22329,7 +22329,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22376,7 +22376,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22423,7 +22423,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22470,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22517,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22611,7 +22611,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22658,7 +22658,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22708,7 +22708,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R424">
         <v>38</v>
@@ -22758,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22899,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22946,7 +22946,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22996,7 +22996,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R430">
         <v>22</v>
@@ -23049,7 +23049,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R431">
         <v>17</v>
@@ -23099,7 +23099,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23149,7 +23149,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23199,7 +23199,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R434">
         <v>5</v>
@@ -23249,7 +23249,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23293,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23531,7 +23531,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R441">
         <v>35</v>
@@ -23581,7 +23581,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23628,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23678,7 +23678,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R444">
         <v>29</v>
@@ -23728,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23775,7 +23775,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23825,7 +23825,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R447">
         <v>0</v>
@@ -23875,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23922,7 +23922,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24019,7 +24019,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R451">
         <v>17</v>
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24119,7 +24119,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R453">
         <v>20</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24222,7 +24222,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R455">
         <v>13</v>
@@ -24275,7 +24275,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R456">
         <v>9</v>
@@ -24325,7 +24325,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24419,7 +24419,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24516,7 +24516,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R461">
         <v>5</v>
@@ -24569,7 +24569,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R462">
         <v>21</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24719,7 +24719,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R465">
         <v>33</v>
@@ -24772,7 +24772,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R466">
         <v>12</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R468">
         <v>6</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24969,7 +24969,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R470">
         <v>12</v>
@@ -25019,7 +25019,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25072,7 +25072,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R472">
         <v>7</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25266,7 +25266,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R476">
         <v>19</v>
@@ -25316,7 +25316,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25366,7 +25366,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R478">
         <v>13</v>
@@ -25419,7 +25419,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25469,7 +25469,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R480">
         <v>26</v>
@@ -25522,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25572,7 +25572,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R482">
         <v>4</v>
@@ -25622,7 +25622,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25669,7 +25669,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25719,7 +25719,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25769,7 +25769,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R486">
         <v>28</v>
@@ -25822,7 +25822,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25869,7 +25869,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25922,7 +25922,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R489">
         <v>0</v>
@@ -25972,7 +25972,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -26022,7 +26022,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R491">
         <v>9</v>
@@ -26072,7 +26072,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26122,7 +26122,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R493">
         <v>5</v>
@@ -26172,7 +26172,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26222,7 +26222,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26269,7 +26269,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26316,7 +26316,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26363,7 +26363,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26413,7 +26413,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R499">
         <v>2</v>
@@ -26460,7 +26460,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26557,7 +26557,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26607,7 +26607,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R503">
         <v>3</v>
@@ -26657,7 +26657,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26751,7 +26751,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26801,7 +26801,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R507">
         <v>5</v>
@@ -26848,7 +26848,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26895,7 +26895,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26992,7 +26992,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R511">
         <v>3</v>
@@ -27045,7 +27045,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27095,7 +27095,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R513">
         <v>13</v>
@@ -27145,7 +27145,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27195,7 +27195,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R515">
         <v>7</v>
@@ -27245,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27286,10 +27286,10 @@
         <v>1</v>
       </c>
       <c r="P517" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q517">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27330,7 +27330,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
